--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_205.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_205.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:00:00.500000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['B', 'B', 'E/5', 'B'], ['B', 'E/5', 'B', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:02:02.976598', '0:02:14.098957'), ('0:00:15.027029', '0:00:22.457415')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.629773', '0:01:04.604285'), ('0:00:58.625147', '0:01:07.541609')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:53.520000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.22, 3.44)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.120000', '0:00:27.180000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1454741379310345</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C', 'G', 'A:min7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:14.565283', '0:00:18.936988')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_289</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1548507462686567</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min/b7', 'A:min/6', 'F', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'E:min', 'C', 'E:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.282828, 10.689251)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.79204, 23.121836)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5GjPQ0eI7AgmOnADn1EO6Q</t>
-        </is>
-      </c>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(114.52, 115.98)]</t>
+          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:35.880000', '0:00:37.420000'), ('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.12, 99.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(81.62, 103.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
